--- a/biology/Zoologie/Marion_Fyfe/Marion_Fyfe.xlsx
+++ b/biology/Zoologie/Marion_Fyfe/Marion_Fyfe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marion Liddell Fyfe, née le 1er septembre 1897 et morte le 26 août 1986, est une universitaire néo-zélandaise, spécialisée dans la taxonomie des planaires et autres vers plats, la première femme maître de conférences en zoologie à l'Université d'Otago et la première femme à être élue au Conseil du Société royale Te Apārangi.
 </t>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fyfe est née à Kakanui dans l'Otago le 1er septembre 1897, fille d'Harriet et William Fyfe[1].
-Elle obtient une maîtrise en zoologie en 1935 de l'Université d'Otago[1]. Elle est la première femme chargée de cours en zoologie à Otago en 1921 et est cheffe par intérim du département à l'occasion[2]. Ses recherches portent sur les vers plats et en particulier sur leurs processus de reproduction[2].
-En 1949, Fyfe devient la première femme à être élue au Conseil de la Royal Society Te Apārangi. Elle participe à l'édition d'épreuves pour le journal Transactions of the Royal Society of New Zealand, puis devient rédactrice en chef. On lui attribue l'amélioration de la qualité de la revue[3],[2].
-Fyfe prend sa retraite de l'Université d'Otago en 1957[4],[5].
-Elizabeth Edgar, la nièce de Fyfe, est « l'une des botanistes les plus estimées de Nouvelle-Zélande »[5].
-Fyfe est morte le 26 août 1986[2].
-Le genre de planaires Marionfyfea est nommé en son honneur, pour « son travail anatomique taxonomique pionnier sur la Terricola de Nouvelle-Zélande »[6],[7].
-La bourse Marion Fyfe (d'une valeur de 500 $) est décernée chaque année par le département de zoologie de l'Université d'Otago à « l'étudiante en zoologie qui a atteint le plus haut niveau de réussite en zoologie au niveau 400 »[8].
-En 2017, Fyfe est sélectionnée comme l'une des 150 femmes de la Royal Society Te Apārangi en 150 mots, célébrant les contributions des femmes au savoir en Nouvelle-Zélande[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fyfe est née à Kakanui dans l'Otago le 1er septembre 1897, fille d'Harriet et William Fyfe.
+Elle obtient une maîtrise en zoologie en 1935 de l'Université d'Otago. Elle est la première femme chargée de cours en zoologie à Otago en 1921 et est cheffe par intérim du département à l'occasion. Ses recherches portent sur les vers plats et en particulier sur leurs processus de reproduction.
+En 1949, Fyfe devient la première femme à être élue au Conseil de la Royal Society Te Apārangi. Elle participe à l'édition d'épreuves pour le journal Transactions of the Royal Society of New Zealand, puis devient rédactrice en chef. On lui attribue l'amélioration de la qualité de la revue,.
+Fyfe prend sa retraite de l'Université d'Otago en 1957,.
+Elizabeth Edgar, la nièce de Fyfe, est « l'une des botanistes les plus estimées de Nouvelle-Zélande ».
+Fyfe est morte le 26 août 1986.
+Le genre de planaires Marionfyfea est nommé en son honneur, pour « son travail anatomique taxonomique pionnier sur la Terricola de Nouvelle-Zélande »,.
+La bourse Marion Fyfe (d'une valeur de 500 $) est décernée chaque année par le département de zoologie de l'Université d'Otago à « l'étudiante en zoologie qui a atteint le plus haut niveau de réussite en zoologie au niveau 400 ».
+En 2017, Fyfe est sélectionnée comme l'une des 150 femmes de la Royal Society Te Apārangi en 150 mots, célébrant les contributions des femmes au savoir en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) M L Fyfe, « The Anatomy and Systematic Position of Temnocephala novae-zealandiae Haswell. », Transactions and Proceedings of the Royal Society of New Zealand, Société royale de Nouvelle-Zélande, vol. 72,‎ 1942, p. 253-267 (ISSN 1176-6166, lire en ligne)
 (en) Marion L. Fyfe, « The Classification and Reproductive Organs of New Zealand Land Planarians,Part I.—Geoplana Graffii Dendy and Arti-Oposthia Howesi (Dendy). », Transactions and Proceedings of the Royal Society of New Zealand, Société royale de Nouvelle-Zélande, vol. 74,‎ 1944, p. 288-293 (ISSN 1176-6166, lire en ligne)
